--- a/data/population.xlsx
+++ b/data/population.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="2" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet name="female" sheetId="1" r:id="rId1"/>
-    <sheet name="male" sheetId="2" r:id="rId2"/>
+    <sheet name="male" sheetId="1" r:id="rId1"/>
+    <sheet name="female" sheetId="2" r:id="rId2"/>
     <sheet name="both" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -200,25 +200,38 @@
   <si>
     <t>Wyoming</t>
   </si>
+  <si>
+    <t>state</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -232,30 +245,42 @@
   </fills>
   <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -555,14 +580,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
+      <c r="A1" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2261,14 +2290,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
+      <c r="A1" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3967,14 +4000,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
+      <c r="A1" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
